--- a/biology/Botanique/Coquelourde_des_jardins/Coquelourde_des_jardins.xlsx
+++ b/biology/Botanique/Coquelourde_des_jardins/Coquelourde_des_jardins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lychnis coronaria
 La Coquelourde des jardins (Lychnis coronaria, anciennement Silene coronaria) est une plante herbacée vivace appartenant au genre Lychnis et à la famille des Caryophyllacées.
@@ -513,13 +525,15 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonymes :
 Silene coronaria (L.) Clairv.
 Agrostemma coronaria L.
 Coronaria coriacea (Moench) Schischk. &amp; Gorschk.
-En Suisse on l'appelle Silène coronaire, en italien Crotonella coronaria et en allemand Kron-Lichtnelke[1].
+En Suisse on l'appelle Silène coronaire, en italien Crotonella coronaria et en allemand Kron-Lichtnelke.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante grisâtre très velue, à poils argentés et soyeux, dont les feuilles sont opposées, ovales à lancéolées.
 Inflorescence en cymes bipares, fleurs à longs pédicelles. Corolle à cinq pétales légèrement échancrés, munis à la base de dents rigides, formant une couronne au centre de la fleur (d'où le nom de l'espèce).
@@ -589,7 +605,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle appartient au genre Lychnis et à la famille des Caryophyllacées.
 </t>
@@ -620,13 +638,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses origines sont l'Europe méridionale et l'Asie occidentale. 
-La Coquelourde des jardins peut se rencontrer dans plusieurs régions françaises[2] mais également, à une plus grande échelle, en Asie mineure et jusqu'au Turkestan.
+La Coquelourde des jardins peut se rencontrer dans plusieurs régions françaises mais également, à une plus grande échelle, en Asie mineure et jusqu'au Turkestan.
 Habitat type : friches vivaces, prairies maigres, xérophiles, médioeuropéennes
 Aire de répartition : européen méridional
-En Suisse, elle est peu fréquente en Valais et subspontanée dispersée ailleurs. Elle est protégée sur tout le territoire[1].
+En Suisse, elle est peu fréquente en Valais et subspontanée dispersée ailleurs. Elle est protégée sur tout le territoire.
 Sur les autres projets Wikimedia :
 Coquelourde des jardins, sur Wikimedia CommonsCoquelourde des jardins, sur Wikispecies
 </t>
@@ -657,7 +677,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est très cultivée, formant des massifs spectaculaires.
 </t>
